--- a/artfynd/A 43541-2022 artfynd.xlsx
+++ b/artfynd/A 43541-2022 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>131009112</v>
       </c>
       <c r="B3" t="n">
-        <v>100325</v>
+        <v>100329</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Käckelbäcksmon, Ång</t>
+          <t>Mjällådalen Käckelbäcksmon, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -868,7 +868,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>Y-Här-0041</t>
+          <t>Y-Här-0041-biogeo</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">

--- a/artfynd/A 43541-2022 artfynd.xlsx
+++ b/artfynd/A 43541-2022 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>131009112</v>
       </c>
       <c r="B3" t="n">
-        <v>100329</v>
+        <v>100330</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 43541-2022 artfynd.xlsx
+++ b/artfynd/A 43541-2022 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>131009112</v>
       </c>
       <c r="B3" t="n">
-        <v>100330</v>
+        <v>100331</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 43541-2022 artfynd.xlsx
+++ b/artfynd/A 43541-2022 artfynd.xlsx
@@ -797,7 +797,7 @@
         <v>131009112</v>
       </c>
       <c r="B3" t="n">
-        <v>100331</v>
+        <v>100334</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
